--- a/Pessoal/atalada/atalada.xlsx
+++ b/Pessoal/atalada/atalada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://banco365-my.sharepoint.com/personal/murilo_asantos_bb_com_br/Documents/Área de Trabalho/repo-murilo-bb/repo-murilo-bb/Pessoal/atalada/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_F25DC773A252ABDACC1048DDB19E6B945BDE58FA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4DF8B6F-CDB1-4E5E-8508-B9018E088C47}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_F25DC773A252ABDACC1048DDB19E6B945BDE58FA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A47BCBB3-C39B-4A31-BE35-795D28944B9C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Impessoal</t>
   </si>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>Nary0000</t>
+  </si>
+  <si>
+    <t>fgi-h</t>
+  </si>
+  <si>
+    <t>nary1408</t>
+  </si>
+  <si>
+    <t>fgi-p</t>
+  </si>
+  <si>
+    <t>murilo121212</t>
   </si>
 </sst>
 </file>
@@ -98,6 +110,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -363,15 +379,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -379,7 +400,7 @@
         <v>42349860</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -387,7 +408,7 @@
         <v>42349866</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -395,7 +416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -403,12 +424,34 @@
         <v>42349866</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Pessoal/atalada/atalada.xlsx
+++ b/Pessoal/atalada/atalada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://banco365-my.sharepoint.com/personal/murilo_asantos_bb_com_br/Documents/Área de Trabalho/repo-murilo-bb/repo-murilo-bb/Pessoal/atalada/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_F25DC773A252ABDACC1048DDB19E6B945BDE58FA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A47BCBB3-C39B-4A31-BE35-795D28944B9C}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_F25DC773A252ABDACC1048DDB19E6B945BDE58FA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C7D3E54-02ED-4715-B8CF-4ECBB044540D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Impessoal</t>
   </si>
@@ -33,9 +33,6 @@
     <t>sisbb</t>
   </si>
   <si>
-    <t>Nary0005</t>
-  </si>
-  <si>
     <t>man</t>
   </si>
   <si>
@@ -58,16 +55,39 @@
   </si>
   <si>
     <t>murilo121212</t>
+  </si>
+  <si>
+    <t>Nary0006</t>
+  </si>
+  <si>
+    <t>fgi</t>
+  </si>
+  <si>
+    <t>MuriloBBFGI</t>
+  </si>
+  <si>
+    <t>00.000.000/0001-91</t>
+  </si>
+  <si>
+    <t>PngFgi@22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -90,13 +110,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -379,20 +402,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,7 +423,7 @@
         <v>42349860</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -408,53 +431,70 @@
         <v>42349866</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
       </c>
       <c r="B4">
         <v>42349866</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D9" r:id="rId1" xr:uid="{64F63F7B-E9CA-4279-9110-5D5D5E9E4FB7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Pessoal/atalada/atalada.xlsx
+++ b/Pessoal/atalada/atalada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://banco365-my.sharepoint.com/personal/murilo_asantos_bb_com_br/Documents/Área de Trabalho/repo-murilo-bb/repo-murilo-bb/Pessoal/atalada/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_F25DC773A252ABDACC1048DDB19E6B945BDE58FA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C7D3E54-02ED-4715-B8CF-4ECBB044540D}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="11_F25DC773A252ABDACC1048DDB19E6B945BDE58FA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA4B6413-24B2-4AEA-9352-337EE542444B}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="1560" windowWidth="27000" windowHeight="13950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <t>man</t>
   </si>
   <si>
-    <t>tec</t>
-  </si>
-  <si>
     <t>unibb</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>PngFgi@22</t>
+  </si>
+  <si>
+    <t>tecnica</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,67 +428,67 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>42349866</v>
+        <v>30945221</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>42349867</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>42349866</v>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
         <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Pessoal/atalada/atalada.xlsx
+++ b/Pessoal/atalada/atalada.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="42" documentId="11_F25DC773A252ABDACC1048DDB19E6B945BDE58FA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA4B6413-24B2-4AEA-9352-337EE542444B}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1560" windowWidth="27000" windowHeight="13950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,7 +405,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Pessoal/atalada/atalada.xlsx
+++ b/Pessoal/atalada/atalada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://banco365-my.sharepoint.com/personal/murilo_asantos_bb_com_br/Documents/Área de Trabalho/repo-murilo-bb/repo-murilo-bb/Pessoal/atalada/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="11_F25DC773A252ABDACC1048DDB19E6B945BDE58FA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA4B6413-24B2-4AEA-9352-337EE542444B}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="11_F25DC773A252ABDACC1048DDB19E6B945BDE58FA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B09810F7-F1AA-49C8-8B2D-1A6CFD0CB01D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,7 +405,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
